--- a/data/donnees_AGRIVETAM_2023-07-24.xlsx
+++ b/data/donnees_AGRIVETAM_2023-07-24.xlsx
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-82948741.73999999</v>
+        <v>-87719041.73999999</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>349549.48</v>
@@ -882,7 +882,7 @@
         <v>16539049.68</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-49774932.54</v>
+        <v>-54545232.54</v>
       </c>
     </row>
     <row r="13">
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5710971.44</v>
+        <v>5551181.44</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>-2273473</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>3437498.44</v>
+        <v>3277708.44</v>
       </c>
     </row>
     <row r="21">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>347465.74</v>
+        <v>-40574.16</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>640839.6</v>
@@ -1302,7 +1302,7 @@
         <v>448587.72</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1436893.06</v>
+        <v>1048853.16</v>
       </c>
     </row>
     <row r="25">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>438508.8</v>
+        <v>189156.6</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>438508.8</v>
+        <v>189156.6</v>
       </c>
     </row>
     <row r="27">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-181980500</v>
+        <v>-183275500</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>36596900</v>
@@ -1547,7 +1547,7 @@
         <v>11328100</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-132205500</v>
+        <v>-133500500</v>
       </c>
     </row>
     <row r="32">

--- a/data/donnees_AGRIVETAM_2023-07-24.xlsx
+++ b/data/donnees_AGRIVETAM_2023-07-24.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-477494504.4</v>
+        <v>-401098354.4</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>17318950</v>
@@ -532,7 +532,7 @@
         <v>191036399.95</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>-242977154.45</v>
+        <v>-166581004.45</v>
       </c>
     </row>
     <row r="3">
@@ -660,7 +660,7 @@
         <v>-60524500</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>3067000</v>
+        <v>25981700</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>11075800</v>
@@ -672,7 +672,7 @@
         <v>22535700</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-22189350</v>
+        <v>725350</v>
       </c>
     </row>
     <row r="7">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-384305900</v>
+        <v>-349205900</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-384305900</v>
+        <v>-349205900</v>
       </c>
     </row>
     <row r="8">
@@ -870,7 +870,7 @@
         <v>-87719041.73999999</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>349549.48</v>
+        <v>58632381.6</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>11232160.04</v>
@@ -882,7 +882,7 @@
         <v>16539049.68</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-54545232.54</v>
+        <v>3737599.58</v>
       </c>
     </row>
     <row r="13">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-38951800</v>
+        <v>-38507800</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>8285600</v>
@@ -917,7 +917,7 @@
         <v>6280200</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-23755219.52</v>
+        <v>-23311219.52</v>
       </c>
     </row>
     <row r="14">
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-1797100</v>
+        <v>-931400</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>3767700</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>1970600</v>
+        <v>2836300</v>
       </c>
     </row>
     <row r="19">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-40574.16</v>
+        <v>1008727.44</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>640839.6</v>
@@ -1302,7 +1302,7 @@
         <v>448587.72</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1048853.16</v>
+        <v>2098154.76</v>
       </c>
     </row>
     <row r="25">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-183275500</v>
+        <v>-181980500</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>36596900</v>
@@ -1547,7 +1547,7 @@
         <v>11328100</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-133500500</v>
+        <v>-132205500</v>
       </c>
     </row>
     <row r="32">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-12290308.3</v>
+        <v>-8205008.3</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>1200000</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-11090308.3</v>
+        <v>-7005008.3</v>
       </c>
     </row>
     <row r="36">
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-102000</v>
+        <v>-26600</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>134000</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>32000</v>
+        <v>107400</v>
       </c>
     </row>
     <row r="41">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>15319711.2</v>
+        <v>15915448.32</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>7408031.52</v>
@@ -2002,7 +2002,7 @@
         <v>-9029831.52</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>13697911.2</v>
+        <v>14293648.32</v>
       </c>
     </row>
     <row r="45">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>8602730.4</v>
+        <v>9270120.6</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>8602730.4</v>
+        <v>9270120.6</v>
       </c>
     </row>
     <row r="122">
@@ -4930,7 +4930,7 @@
         <v>-38349900</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>0</v>
+        <v>538500</v>
       </c>
       <c r="F128" s="2" t="n">
         <v>0</v>
@@ -4942,7 +4942,7 @@
         <v>3425000</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>-34924900</v>
+        <v>-34386400</v>
       </c>
     </row>
     <row r="129">
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>-13766000</v>
+        <v>1284000</v>
       </c>
       <c r="E141" s="2" t="n">
         <v>58262000</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="2" t="n">
-        <v>52726000</v>
+        <v>67776000</v>
       </c>
     </row>
     <row r="142">
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>0</v>
+        <v>3750</v>
       </c>
       <c r="F147" s="2" t="n">
         <v>7500</v>
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>7500</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="148">
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>40853839.76</v>
+        <v>40778839.76</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>-77999800</v>
@@ -5999,7 +5999,7 @@
         <v>-174445100</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>-313517340.24</v>
+        <v>-313592340.24</v>
       </c>
     </row>
     <row r="7">
@@ -6019,7 +6019,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-1417104684</v>
+        <v>-1680189184</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>-1441845800</v>
@@ -6034,7 +6034,7 @@
         <v>973029600</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-1876173984</v>
+        <v>-2139258484</v>
       </c>
     </row>
     <row r="8">
@@ -6054,7 +6054,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-38264468.57</v>
+        <v>-67964468.56999999</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>-93030300</v>
@@ -6069,7 +6069,7 @@
         <v>-84150000</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>-310880768.57</v>
+        <v>-340580768.57</v>
       </c>
     </row>
     <row r="9">
@@ -6267,7 +6267,7 @@
         <v>-0.1</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-25906.9</v>
+        <v>-2556087.32</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-25907</v>
+        <v>-2556087.42</v>
       </c>
     </row>
     <row r="15">
@@ -6827,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-5703936</v>
+        <v>-8571699</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>-5596777</v>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>-11300713</v>
+        <v>-14168476</v>
       </c>
     </row>
     <row r="31">
